--- a/perf-results.xlsx
+++ b/perf-results.xlsx
@@ -4,18 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27000" windowHeight="17160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13900" yWindow="300" windowWidth="21040" windowHeight="19560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="summary" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">Sheet1!$A$3:$G$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">main!$A$2:$G$26</definedName>
   </definedNames>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="3" r:id="rId3"/>
+    <pivotCache cacheId="8" r:id="rId3"/>
   </pivotCaches>
   <webPublishing allowPng="1" targetScreenSize="1024x768" dpi="72" codePage="10000"/>
   <extLst>
@@ -27,10 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
-  <si>
-    <t>React</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="17">
   <si>
     <t>Type</t>
   </si>
@@ -42,6 +39,9 @@
   </si>
   <si>
     <t>Angular</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Scripting (ms)</t>
@@ -61,15 +61,35 @@
   <si>
     <t>React v16 Alpha</t>
   </si>
+  <si>
+    <t>Angular Total</t>
+  </si>
+  <si>
+    <t>React v15 Total</t>
+  </si>
+  <si>
+    <t>React v16 Alpha Total</t>
+  </si>
+  <si>
+    <t>Average % of Test Time Spent Scripting</t>
+  </si>
+  <si>
+    <t>StdDev of % of Test Time Spent Scripting</t>
+  </si>
+  <si>
+    <t>Average of Scripting (ms)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
+    <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -196,7 +216,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -211,9 +231,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="61">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -312,23 +335,29 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Joel Zipkin" refreshedDate="42895.738280787038" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="23">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Joel Zipkin" refreshedDate="42895.813848379628" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="35">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="TestId" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="20"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="30"/>
     </cacheField>
     <cacheField name="Type" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="React"/>
+      <sharedItems containsBlank="1" count="5">
+        <s v="React v15"/>
         <m/>
         <s v="Angular"/>
+        <s v="React v16 Alpha"/>
+        <s v="React" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Components" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="500"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="100" maxValue="500" count="3">
+        <n v="500"/>
+        <m/>
+        <n v="100"/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Run #" numFmtId="0">
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
@@ -337,10 +366,10 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="29801" maxValue="31021"/>
     </cacheField>
     <cacheField name="Scripting (ms)" numFmtId="165">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1817" maxValue="17609"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1817" maxValue="18472"/>
     </cacheField>
     <cacheField name="% of Test Time Spent Scripting" numFmtId="164">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.998283375148554E-2" maxValue="0.57040588254348745"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="5.998283375148554E-2" maxValue="0.60695275021357697"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -352,11 +381,11 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="23">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="35">
   <r>
     <n v="1"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="30452"/>
     <n v="16727"/>
@@ -365,7 +394,7 @@
   <r>
     <n v="2"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="30871"/>
     <n v="17609"/>
@@ -374,7 +403,7 @@
   <r>
     <n v="3"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="30862"/>
     <n v="15893"/>
@@ -383,7 +412,7 @@
   <r>
     <n v="4"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="30348"/>
     <n v="16087"/>
@@ -392,7 +421,7 @@
   <r>
     <n v="5"/>
     <x v="0"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="30512"/>
     <n v="16154"/>
@@ -401,7 +430,7 @@
   <r>
     <m/>
     <x v="1"/>
-    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -410,7 +439,7 @@
   <r>
     <n v="6"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="30570"/>
     <n v="3895"/>
@@ -419,7 +448,7 @@
   <r>
     <n v="7"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="29890"/>
     <n v="3564"/>
@@ -428,7 +457,7 @@
   <r>
     <n v="8"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="30615"/>
     <n v="3575"/>
@@ -437,7 +466,7 @@
   <r>
     <n v="9"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="30486"/>
     <n v="3564"/>
@@ -446,7 +475,7 @@
   <r>
     <n v="10"/>
     <x v="0"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="5"/>
     <n v="30271"/>
     <n v="3745"/>
@@ -455,7 +484,7 @@
   <r>
     <m/>
     <x v="1"/>
-    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -464,7 +493,7 @@
   <r>
     <n v="11"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="1"/>
     <n v="30451"/>
     <n v="13750"/>
@@ -473,7 +502,7 @@
   <r>
     <n v="12"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="2"/>
     <n v="30611"/>
     <n v="13592"/>
@@ -482,7 +511,7 @@
   <r>
     <n v="13"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="3"/>
     <n v="31021"/>
     <n v="13694"/>
@@ -491,7 +520,7 @@
   <r>
     <n v="14"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="4"/>
     <n v="30383"/>
     <n v="13583"/>
@@ -500,7 +529,7 @@
   <r>
     <n v="15"/>
     <x v="2"/>
-    <n v="500"/>
+    <x v="0"/>
     <n v="5"/>
     <n v="30369"/>
     <n v="13349"/>
@@ -509,7 +538,7 @@
   <r>
     <m/>
     <x v="1"/>
-    <m/>
+    <x v="1"/>
     <m/>
     <m/>
     <m/>
@@ -518,7 +547,7 @@
   <r>
     <n v="16"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="1"/>
     <n v="30084"/>
     <n v="1986"/>
@@ -527,7 +556,7 @@
   <r>
     <n v="17"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="2"/>
     <n v="29801"/>
     <n v="1915"/>
@@ -536,7 +565,7 @@
   <r>
     <n v="18"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="3"/>
     <n v="30257"/>
     <n v="1956"/>
@@ -545,7 +574,7 @@
   <r>
     <n v="19"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="4"/>
     <n v="30292"/>
     <n v="1817"/>
@@ -554,69 +583,211 @@
   <r>
     <n v="20"/>
     <x v="2"/>
-    <n v="100"/>
+    <x v="2"/>
     <n v="5"/>
     <n v="30406"/>
     <n v="1851"/>
     <n v="6.0876142866539501E-2"/>
   </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="1"/>
+    <n v="30369"/>
+    <n v="17886"/>
+    <n v="0.58895584312950711"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="2"/>
+    <n v="30434"/>
+    <n v="18472"/>
+    <n v="0.60695275021357697"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="3"/>
+    <n v="30040"/>
+    <n v="17618"/>
+    <n v="0.58648468708388812"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="4"/>
+    <n v="30312"/>
+    <n v="17311"/>
+    <n v="0.57109395618896808"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="5"/>
+    <n v="30392"/>
+    <n v="17730"/>
+    <n v="0.58337720452750719"/>
+  </r>
+  <r>
+    <m/>
+    <x v="1"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="1"/>
+    <n v="30391"/>
+    <n v="3963"/>
+    <n v="0.13040044750090488"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="2"/>
+    <n v="30436"/>
+    <n v="3146"/>
+    <n v="0.10336443685109739"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="3"/>
+    <n v="30499"/>
+    <n v="3176"/>
+    <n v="0.10413456178891112"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="30414"/>
+    <n v="3604"/>
+    <n v="0.11849806010389952"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="30722"/>
+    <n v="3848"/>
+    <n v="0.12525226222251157"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:F16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <pivotTableStyleInfo name="PivotStyleMedium4" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="Components">
-  <location ref="B2:G5" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption=" " updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" gridDropZones="1" multipleFieldFilters="0" rowHeaderCaption="Components">
+  <location ref="A3:D16" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="7">
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField axis="axisRow" subtotalTop="0" showAll="0">
-      <items count="4">
+      <items count="6">
         <item x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="1"/>
         <item x="0"/>
-        <item h="1" x="1"/>
+        <item x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0" defaultSubtotal="0">
+      <items count="3">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+    </pivotField>
     <pivotField subtotalTop="0" showAll="0"/>
     <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" showAll="0" defaultSubtotal="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
     <field x="1"/>
+    <field x="2"/>
   </rowFields>
-  <rowItems count="2">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
-    <i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
       <x v="1"/>
     </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
   </rowItems>
-  <colItems count="1">
-    <i/>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
   </colItems>
+  <dataFields count="3">
+    <dataField name="Average % of Test Time Spent Scripting" fld="6" subtotal="average" baseField="0" baseItem="0" numFmtId="164"/>
+    <dataField name="Average of Scripting (ms)" fld="5" subtotal="average" baseField="0" baseItem="0" numFmtId="166"/>
+    <dataField name="StdDev of % of Test Time Spent Scripting" fld="6" subtotal="stdDev" baseField="0" baseItem="0" numFmtId="167"/>
+  </dataFields>
   <pivotTableStyleInfo name="PivotStyleMedium2" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -627,8 +798,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A12:G47" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A12:G47"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:G38" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A3:G38"/>
   <tableColumns count="7">
     <tableColumn id="1" name="TestId"/>
     <tableColumn id="2" name="Type"/>
@@ -637,7 +808,7 @@
     <tableColumn id="5" name="Total Duration (ms)" dataDxfId="3" dataCellStyle="Comma"/>
     <tableColumn id="6" name="Scripting (ms)" dataDxfId="2" dataCellStyle="Comma"/>
     <tableColumn id="7" name="% of Test Time Spent Scripting" dataDxfId="1" dataCellStyle="Percent">
-      <calculatedColumnFormula>F13/E13</calculatedColumnFormula>
+      <calculatedColumnFormula>F4/E4</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -966,43 +1137,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr enableFormatConditionsCalculation="0">
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A3:H47"/>
+  <dimension ref="A3:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="E46" sqref="E46"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.1640625" customWidth="1"/>
     <col min="9" max="9" width="12.5" customWidth="1"/>
@@ -1016,778 +1168,792 @@
     <col min="23" max="29" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8">
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8" ht="37" customHeight="1">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>7</v>
       </c>
+      <c r="D3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="B4" s="4" t="s">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>500</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>30452</v>
+      </c>
+      <c r="F4" s="6">
+        <v>16727</v>
+      </c>
+      <c r="G4" s="1">
+        <f>F4/E4</f>
+        <v>0.5492906869827926</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>500</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30871</v>
+      </c>
+      <c r="F5" s="6">
+        <v>17609</v>
+      </c>
+      <c r="G5" s="1">
+        <f>F5/E5</f>
+        <v>0.57040588254348745</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>500</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6">
+        <v>30862</v>
+      </c>
+      <c r="F6" s="6">
+        <v>15893</v>
+      </c>
+      <c r="G6" s="1">
+        <f>F6/E6</f>
+        <v>0.51496986585444882</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>500</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7" s="6">
+        <v>30348</v>
+      </c>
+      <c r="F7" s="6">
+        <v>16087</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G5:G26" si="0">F7/E7</f>
+        <v>0.53008435481745086</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6">
+        <v>30512</v>
+      </c>
+      <c r="F8" s="6">
+        <v>16154</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="0"/>
+        <v>0.5294310435238595</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="C10" s="5"/>
-      <c r="F10" s="2"/>
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>100</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6">
+        <v>30570</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3895</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>0.12741249591102388</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="C11" s="5"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:8" ht="37" customHeight="1">
-      <c r="A12" s="7" t="s">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>100</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="6">
+        <v>29890</v>
+      </c>
+      <c r="F11" s="6">
+        <v>3564</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11923720307795249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <v>100</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>6</v>
+      <c r="E12" s="6">
+        <v>30615</v>
+      </c>
+      <c r="F12" s="6">
+        <v>3575</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.11677282377919321</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
         <v>9</v>
       </c>
       <c r="C13">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E13" s="6">
-        <v>30452</v>
+        <v>30486</v>
       </c>
       <c r="F13" s="6">
-        <v>16727</v>
+        <v>3564</v>
       </c>
       <c r="G13" s="1">
-        <f>F13/E13</f>
-        <v>0.5492906869827926</v>
-      </c>
-      <c r="H13" s="2"/>
+        <f t="shared" si="0"/>
+        <v>0.11690612084235387</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B14" t="s">
         <v>9</v>
       </c>
       <c r="C14">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6">
-        <v>30871</v>
+        <v>30271</v>
       </c>
       <c r="F14" s="6">
-        <v>17609</v>
+        <v>3745</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" ref="G14:G35" si="0">F14/E14</f>
-        <v>0.57040588254348745</v>
+        <f t="shared" si="0"/>
+        <v>0.12371576756631759</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15">
-        <v>500</v>
-      </c>
-      <c r="D15">
-        <v>3</v>
-      </c>
-      <c r="E15" s="6">
-        <v>30862</v>
-      </c>
-      <c r="F15" s="6">
-        <v>15893</v>
-      </c>
-      <c r="G15" s="1">
-        <f t="shared" si="0"/>
-        <v>0.51496986585444882</v>
-      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>500</v>
       </c>
       <c r="D16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E16" s="6">
-        <v>30348</v>
+        <v>30451</v>
       </c>
       <c r="F16" s="6">
-        <v>16087</v>
+        <v>13750</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="0"/>
-        <v>0.53008435481745086</v>
+        <v>0.45154510525105906</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>500</v>
       </c>
       <c r="D17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6">
-        <v>30512</v>
+        <v>30611</v>
       </c>
       <c r="F17" s="6">
-        <v>16154</v>
+        <v>13592</v>
       </c>
       <c r="G17" s="1">
         <f t="shared" si="0"/>
-        <v>0.5294310435238595</v>
+        <v>0.44402339028453824</v>
       </c>
     </row>
     <row r="18" spans="1:7">
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="1"/>
+      <c r="A18">
+        <v>13</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>500</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="6">
+        <v>31021</v>
+      </c>
+      <c r="F18" s="6">
+        <v>13694</v>
+      </c>
+      <c r="G18" s="1">
+        <f t="shared" si="0"/>
+        <v>0.441442893523742</v>
+      </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="6">
-        <v>30570</v>
+        <v>30383</v>
       </c>
       <c r="F19" s="6">
-        <v>3895</v>
+        <v>13583</v>
       </c>
       <c r="G19" s="1">
         <f t="shared" si="0"/>
-        <v>0.12741249591102388</v>
+        <v>0.4470592107428496</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6">
-        <v>29890</v>
+        <v>30369</v>
       </c>
       <c r="F20" s="6">
-        <v>3564</v>
+        <v>13349</v>
       </c>
       <c r="G20" s="1">
         <f t="shared" si="0"/>
-        <v>0.11923720307795249</v>
+        <v>0.43956007771082356</v>
       </c>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21">
-        <v>8</v>
-      </c>
-      <c r="B21" t="s">
-        <v>9</v>
-      </c>
-      <c r="C21">
-        <v>100</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-      <c r="E21" s="6">
-        <v>30615</v>
-      </c>
-      <c r="F21" s="6">
-        <v>3575</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="0"/>
-        <v>0.11677282377919321</v>
-      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>100</v>
       </c>
       <c r="D22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>30486</v>
+        <v>30084</v>
       </c>
       <c r="F22" s="6">
-        <v>3564</v>
+        <v>1986</v>
       </c>
       <c r="G22" s="1">
         <f t="shared" si="0"/>
-        <v>0.11690612084235387</v>
+        <v>6.6015157558835261E-2</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>100</v>
       </c>
       <c r="D23">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E23" s="6">
-        <v>30271</v>
+        <v>29801</v>
       </c>
       <c r="F23" s="6">
-        <v>3745</v>
+        <v>1915</v>
       </c>
       <c r="G23" s="1">
         <f t="shared" si="0"/>
-        <v>0.12371576756631759</v>
+        <v>6.4259588604409251E-2</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="1"/>
+      <c r="A24">
+        <v>18</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>100</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="6">
+        <v>30257</v>
+      </c>
+      <c r="F24" s="6">
+        <v>1956</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="0"/>
+        <v>6.4646197574115077E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25">
+        <v>100</v>
+      </c>
+      <c r="D25">
         <v>4</v>
       </c>
-      <c r="C25">
-        <v>500</v>
-      </c>
-      <c r="D25">
-        <v>1</v>
-      </c>
       <c r="E25" s="6">
-        <v>30451</v>
+        <v>30292</v>
       </c>
       <c r="F25" s="6">
-        <v>13750</v>
+        <v>1817</v>
       </c>
       <c r="G25" s="1">
         <f t="shared" si="0"/>
-        <v>0.45154510525105906</v>
+        <v>5.998283375148554E-2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" s="6">
-        <v>30611</v>
+        <v>30406</v>
       </c>
       <c r="F26" s="6">
-        <v>13592</v>
+        <v>1851</v>
       </c>
       <c r="G26" s="1">
         <f t="shared" si="0"/>
-        <v>0.44402339028453824</v>
+        <v>6.0876142866539501E-2</v>
       </c>
     </row>
     <row r="27" spans="1:7">
-      <c r="A27">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="11"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="9">
+        <v>21</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="9">
+        <v>500</v>
+      </c>
+      <c r="D28" s="9">
+        <v>1</v>
+      </c>
+      <c r="E28" s="6">
+        <v>30369</v>
+      </c>
+      <c r="F28" s="6">
+        <v>17886</v>
+      </c>
+      <c r="G28" s="11">
+        <f>F28/E28</f>
+        <v>0.58895584312950711</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="9">
+        <v>22</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="9">
+        <v>500</v>
+      </c>
+      <c r="D29" s="9">
+        <v>2</v>
+      </c>
+      <c r="E29" s="6">
+        <v>30434</v>
+      </c>
+      <c r="F29" s="6">
+        <v>18472</v>
+      </c>
+      <c r="G29" s="11">
+        <f>F29/E29</f>
+        <v>0.60695275021357697</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="9">
+        <v>23</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="9">
+        <v>500</v>
+      </c>
+      <c r="D30" s="9">
+        <v>3</v>
+      </c>
+      <c r="E30" s="6">
+        <v>30040</v>
+      </c>
+      <c r="F30" s="6">
+        <v>17618</v>
+      </c>
+      <c r="G30" s="11">
+        <f>F30/E30</f>
+        <v>0.58648468708388812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="9">
+        <v>24</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="9">
+        <v>500</v>
+      </c>
+      <c r="D31" s="9">
         <v>4</v>
       </c>
-      <c r="C27">
+      <c r="E31" s="6">
+        <v>30312</v>
+      </c>
+      <c r="F31" s="6">
+        <v>17311</v>
+      </c>
+      <c r="G31" s="11">
+        <f>F31/E31</f>
+        <v>0.57109395618896808</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="9">
+        <v>25</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9">
         <v>500</v>
       </c>
-      <c r="D27">
+      <c r="D32" s="9">
+        <v>5</v>
+      </c>
+      <c r="E32" s="6">
+        <v>30392</v>
+      </c>
+      <c r="F32" s="6">
+        <v>17730</v>
+      </c>
+      <c r="G32" s="11">
+        <f>F32/E32</f>
+        <v>0.58337720452750719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="9"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="11"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="9">
+        <v>26</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="9">
+        <v>100</v>
+      </c>
+      <c r="D34" s="9">
+        <v>1</v>
+      </c>
+      <c r="E34" s="6">
+        <v>30391</v>
+      </c>
+      <c r="F34" s="6">
+        <v>3963</v>
+      </c>
+      <c r="G34" s="11">
+        <f>F34/E34</f>
+        <v>0.13040044750090488</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="9">
+        <v>27</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="9">
+        <v>100</v>
+      </c>
+      <c r="D35" s="9">
+        <v>2</v>
+      </c>
+      <c r="E35" s="6">
+        <v>30436</v>
+      </c>
+      <c r="F35" s="6">
+        <v>3146</v>
+      </c>
+      <c r="G35" s="11">
+        <f>F35/E35</f>
+        <v>0.10336443685109739</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="9">
+        <v>28</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36" s="9">
+        <v>100</v>
+      </c>
+      <c r="D36" s="9">
         <v>3</v>
       </c>
-      <c r="E27" s="6">
-        <v>31021</v>
-      </c>
-      <c r="F27" s="6">
-        <v>13694</v>
-      </c>
-      <c r="G27" s="1">
-        <f t="shared" si="0"/>
-        <v>0.441442893523742</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28">
-        <v>14</v>
-      </c>
-      <c r="B28" t="s">
+      <c r="E36" s="6">
+        <v>30499</v>
+      </c>
+      <c r="F36" s="6">
+        <v>3176</v>
+      </c>
+      <c r="G36" s="11">
+        <f>F36/E36</f>
+        <v>0.10413456178891112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="9">
+        <v>29</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="9">
+        <v>100</v>
+      </c>
+      <c r="D37" s="9">
         <v>4</v>
       </c>
-      <c r="C28">
-        <v>500</v>
-      </c>
-      <c r="D28">
-        <v>4</v>
-      </c>
-      <c r="E28" s="6">
-        <v>30383</v>
-      </c>
-      <c r="F28" s="6">
-        <v>13583</v>
-      </c>
-      <c r="G28" s="1">
-        <f t="shared" si="0"/>
-        <v>0.4470592107428496</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29">
-        <v>15</v>
-      </c>
-      <c r="B29" t="s">
-        <v>4</v>
-      </c>
-      <c r="C29">
-        <v>500</v>
-      </c>
-      <c r="D29">
+      <c r="E37" s="6">
+        <v>30414</v>
+      </c>
+      <c r="F37" s="6">
+        <v>3604</v>
+      </c>
+      <c r="G37" s="11">
+        <f>F37/E37</f>
+        <v>0.11849806010389952</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="9">
+        <v>30</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C38" s="9">
+        <v>100</v>
+      </c>
+      <c r="D38" s="9">
         <v>5</v>
       </c>
-      <c r="E29" s="6">
-        <v>30369</v>
-      </c>
-      <c r="F29" s="6">
-        <v>13349</v>
-      </c>
-      <c r="G29" s="1">
-        <f t="shared" si="0"/>
-        <v>0.43956007771082356</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="1"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>4</v>
-      </c>
-      <c r="C31">
-        <v>100</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="E31" s="6">
-        <v>30084</v>
-      </c>
-      <c r="F31" s="6">
-        <v>1986</v>
-      </c>
-      <c r="G31" s="1">
-        <f t="shared" si="0"/>
-        <v>6.6015157558835261E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>17</v>
-      </c>
-      <c r="B32" t="s">
-        <v>4</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="D32">
-        <v>2</v>
-      </c>
-      <c r="E32" s="6">
-        <v>29801</v>
-      </c>
-      <c r="F32" s="6">
-        <v>1915</v>
-      </c>
-      <c r="G32" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4259588604409251E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>18</v>
-      </c>
-      <c r="B33" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33">
-        <v>100</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33" s="6">
-        <v>30257</v>
-      </c>
-      <c r="F33" s="6">
-        <v>1956</v>
-      </c>
-      <c r="G33" s="1">
-        <f t="shared" si="0"/>
-        <v>6.4646197574115077E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>19</v>
-      </c>
-      <c r="B34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34">
-        <v>100</v>
-      </c>
-      <c r="D34">
-        <v>4</v>
-      </c>
-      <c r="E34" s="6">
-        <v>30292</v>
-      </c>
-      <c r="F34" s="6">
-        <v>1817</v>
-      </c>
-      <c r="G34" s="1">
-        <f t="shared" si="0"/>
-        <v>5.998283375148554E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>20</v>
-      </c>
-      <c r="B35" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35">
-        <v>100</v>
-      </c>
-      <c r="D35">
-        <v>5</v>
-      </c>
-      <c r="E35" s="6">
-        <v>30406</v>
-      </c>
-      <c r="F35" s="6">
-        <v>1851</v>
-      </c>
-      <c r="G35" s="1">
-        <f t="shared" si="0"/>
-        <v>6.0876142866539501E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="8"/>
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="10" t="e">
-        <f>F36/E36</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="8">
-        <v>21</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="8">
-        <v>500</v>
-      </c>
-      <c r="D37" s="8">
-        <v>1</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="10" t="e">
-        <f>F37/E37</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="8">
-        <v>22</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38" s="8">
-        <v>500</v>
-      </c>
-      <c r="D38" s="8">
-        <v>2</v>
-      </c>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="10" t="e">
+      <c r="E38" s="6">
+        <v>30722</v>
+      </c>
+      <c r="F38" s="6">
+        <v>3848</v>
+      </c>
+      <c r="G38" s="11">
         <f>F38/E38</f>
-        <v>#DIV/0!</v>
+        <v>0.12525226222251157</v>
       </c>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="8">
-        <v>23</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="8">
-        <v>500</v>
-      </c>
-      <c r="D39" s="8">
-        <v>3</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="10" t="e">
-        <f>F39/E39</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="8">
-        <v>24</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="8">
-        <v>500</v>
-      </c>
-      <c r="D40" s="8">
-        <v>4</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="10" t="e">
-        <f>F40/E40</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="8">
-        <v>25</v>
-      </c>
-      <c r="B41" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="8">
-        <v>500</v>
-      </c>
-      <c r="D41" s="8">
-        <v>5</v>
-      </c>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="10" t="e">
-        <f>F41/E41</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="8"/>
-      <c r="B42" s="8"/>
-      <c r="C42" s="8"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="10" t="e">
-        <f>F42/E42</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="8">
-        <v>26</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C43" s="8">
-        <v>100</v>
-      </c>
-      <c r="D43" s="8">
-        <v>1</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10" t="e">
-        <f>F43/E43</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="8">
-        <v>27</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44" s="8">
-        <v>100</v>
-      </c>
-      <c r="D44" s="8">
-        <v>2</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10" t="e">
-        <f>F44/E44</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="8">
-        <v>28</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C45" s="8">
-        <v>100</v>
-      </c>
-      <c r="D45" s="8">
-        <v>3</v>
-      </c>
-      <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10" t="e">
-        <f>F45/E45</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="8">
-        <v>29</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C46" s="8">
-        <v>100</v>
-      </c>
-      <c r="D46" s="8">
-        <v>4</v>
-      </c>
-      <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10" t="e">
-        <f>F46/E46</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="8">
-        <v>30</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="8">
-        <v>100</v>
-      </c>
-      <c r="D47" s="8">
-        <v>5</v>
-      </c>
-      <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10" t="e">
-        <f>F47/E47</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="E39" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup scale="87" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1795,4 +1961,199 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="5">
+        <v>100</v>
+      </c>
+      <c r="B6" s="2">
+        <v>6.315598407107692E-2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>1905</v>
+      </c>
+      <c r="D6" s="13">
+        <v>2.5923016391018994E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="5">
+        <v>500</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.44472613550260254</v>
+      </c>
+      <c r="C7" s="12">
+        <v>13593.6</v>
+      </c>
+      <c r="D7" s="13">
+        <v>4.7408667548236505E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.25394105978683973</v>
+      </c>
+      <c r="C8" s="12">
+        <v>7749.3</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.20113738658500011</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="5">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1208088822353682</v>
+      </c>
+      <c r="C10" s="12">
+        <v>3668.6</v>
+      </c>
+      <c r="D10" s="13">
+        <v>4.638135013960841E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="5">
+        <v>500</v>
+      </c>
+      <c r="B11" s="2">
+        <v>0.53883636674440782</v>
+      </c>
+      <c r="C11" s="12">
+        <v>16494</v>
+      </c>
+      <c r="D11" s="13">
+        <v>2.1451077023181522E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.32982262448988803</v>
+      </c>
+      <c r="C12" s="12">
+        <v>10081.299999999999</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.22080511480585396</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="5">
+        <v>100</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.11632995369346488</v>
+      </c>
+      <c r="C14" s="12">
+        <v>3547.4</v>
+      </c>
+      <c r="D14" s="13">
+        <v>1.2238456618126427E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="5">
+        <v>500</v>
+      </c>
+      <c r="B15" s="2">
+        <v>0.5873728882286896</v>
+      </c>
+      <c r="C15" s="12">
+        <v>17803.400000000001</v>
+      </c>
+      <c r="D15" s="13">
+        <v>1.291931460480877E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="2">
+        <v>0.35185142096107719</v>
+      </c>
+      <c r="C16" s="12">
+        <v>10675.4</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0.24854473540545247</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/perf-results.xlsx
+++ b/perf-results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28308"/>
   <workbookPr showInkAnnotation="0" hidePivotFieldList="1" checkCompatibility="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13900" yWindow="300" windowWidth="21040" windowHeight="19560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="13900" yWindow="300" windowWidth="21040" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -1143,7 +1143,7 @@
   </sheetPr>
   <dimension ref="A3:H39"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1967,7 +1967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
